--- a/results/screening_results/screening_prediction_results.xlsx
+++ b/results/screening_results/screening_prediction_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -2005,279 +2005,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LB-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCC(OCC(O)CO)=O</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>262.141638424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2188700564971751</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.04909199476242065</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9509080052375793</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LB-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OC1=C(C2=CC=C(O)C(O)=C2)OC3=C(C(O)=CC(O)=C3)C1=O</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>302.04265266</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.7724604747860562</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9305636286735535</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.06943638622760773</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LB-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCCCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>244.167459248</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2643478260869566</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.06303924322128296</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.936960756778717</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LB-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CC12CC[C@H]3C([C@@H]1CCC24CCC(O4)=O)C=CC5=CC(CCC35C)=O</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>340.203844756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1530608203351276</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1248087882995605</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.8751912117004395</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>LL-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>O=C1C(O[C@H]2[C@@H]([C@H]([C@H]([C@@H](CO[C@]3([C@@H]([C@@H]([C@H]([C@H](C)O3)O)O)O[C@]4([C@@H]([C@@H]([C@H]([C@H](C)O4)O)O)O)O)O)O2)O)O)O)=C(C5=CC=C(O)C=C5)OC6=CC(O)=CC(O)=C16</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>772.2062082999998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5224611854009444</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.06348806619644165</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.9365119338035583</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LL-2</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>C[C@@H]1O[C@@H](OC[C@H]2O[C@@H](OC3=C(OC4=C(C(O)=CC(O[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)=C4)C3=O)C3=CC=C(O)C=C3)[C@H](O)[C@@H](O)[C@H]2OC(=O)\C=C\C2=CC=C(O)C=C2)[C@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>886.2531584920001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5655875731719454</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.02361279726028442</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9763872027397156</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>LL-3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCC(C1=CC=C(S(=O)(O)=O)C=C1)CCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>300.1031447399999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2121406951257698</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1164430379867554</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8835569620132446</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>LL-4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>O=C1C(C2=CC=C(O)C=C2)=COC3=C1C(O)=CC(O)=C3</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>270.05282342</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6607172828236103</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.4247021079063416</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5752978920936584</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ECFP4_1024</t>
+          <t>XGB_ECFP4_1024</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,7 +2100,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2134,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2168,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2202,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2236,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2270,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2304,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2338,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2372,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2406,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2440,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2474,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2508,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2542,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2576,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2610,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2678,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2712,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3018,7 +2746,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3052,7 +2780,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3086,7 +2814,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3120,7 +2848,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3154,7 +2882,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3188,7 +2916,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3222,7 +2950,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3256,7 +2984,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3018,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3052,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3086,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3120,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3154,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3188,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3222,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3256,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3290,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3324,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3392,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3426,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3460,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3494,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3528,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3562,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -3868,279 +3596,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LB-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCC(OCC(O)CO)=O</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>262.141638424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2188700564971751</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.06085139513015747</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9391486048698425</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LB-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OC1=C(C2=CC=C(O)C(O)=C2)OC3=C(C(O)=CC(O)=C3)C1=O</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>302.04265266</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.7724604747860562</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8060500025749207</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.1939500123262405</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LB-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCCCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>244.167459248</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2643478260869566</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0623096227645874</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9376903772354126</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LB-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CC12CC[C@H]3C([C@@H]1CCC24CCC(O4)=O)C=CC5=CC(CCC35C)=O</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>340.203844756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1530608203351276</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0919380784034729</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.9080619215965271</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>LL-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>O=C1C(O[C@H]2[C@@H]([C@H]([C@H]([C@@H](CO[C@]3([C@@H]([C@@H]([C@H]([C@H](C)O3)O)O)O[C@]4([C@@H]([C@@H]([C@H]([C@H](C)O4)O)O)O)O)O)O2)O)O)O)=C(C5=CC=C(O)C=C5)OC6=CC(O)=CC(O)=C16</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>772.2062082999998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5224611854009444</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2204118967056274</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7795881032943726</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LL-2</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>C[C@@H]1O[C@@H](OC[C@H]2O[C@@H](OC3=C(OC4=C(C(O)=CC(O[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)=C4)C3=O)C3=CC=C(O)C=C3)[C@H](O)[C@@H](O)[C@H]2OC(=O)\C=C\C2=CC=C(O)C=C2)[C@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>886.2531584920001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5655875731719454</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.05178689956665039</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9482131004333496</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>LL-3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCC(C1=CC=C(S(=O)(O)=O)C=C1)CCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>300.1031447399999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2121406951257698</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1063295006752014</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8936704993247986</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>LL-4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>O=C1C(C2=CC=C(O)C=C2)=COC3=C1C(O)=CC(O)=C3</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>270.05282342</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6607172828236103</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.4916351437568665</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5083648562431335</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ECFP4_2048</t>
+          <t>XGB_ECFP4_2048</t>
         </is>
       </c>
     </row>
@@ -4155,7 +3611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4235,7 +3691,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4269,7 +3725,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4303,7 +3759,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4337,7 +3793,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4371,7 +3827,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4405,7 +3861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4439,7 +3895,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4473,7 +3929,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4507,7 +3963,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4541,7 +3997,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4031,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4065,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4099,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4133,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4167,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4201,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4235,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4269,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4303,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4337,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4371,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4405,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4439,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5017,7 +4473,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5051,7 +4507,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5085,7 +4541,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5119,7 +4575,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5153,7 +4609,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5187,7 +4643,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5221,7 +4677,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5255,7 +4711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5289,7 +4745,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5323,7 +4779,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5357,7 +4813,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5391,7 +4847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5425,7 +4881,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5459,7 +4915,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5493,7 +4949,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5527,7 +4983,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5017,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5051,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5085,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5119,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5153,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -5731,279 +5187,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LB-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCC(OCC(O)CO)=O</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>262.141638424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2188700564971751</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.08458548784255981</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9154145121574402</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LB-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OC1=C(C2=CC=C(O)C(O)=C2)OC3=C(C(O)=CC(O)=C3)C1=O</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>302.04265266</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.7724604747860562</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8115922808647156</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.1884077191352844</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LB-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCCCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>244.167459248</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2643478260869566</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.09742069244384766</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9025793075561523</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LB-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CC12CC[C@H]3C([C@@H]1CCC24CCC(O4)=O)C=CC5=CC(CCC35C)=O</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>340.203844756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1530608203351276</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1775780916213989</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.8224219083786011</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>LL-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>O=C1C(O[C@H]2[C@@H]([C@H]([C@H]([C@@H](CO[C@]3([C@@H]([C@@H]([C@H]([C@H](C)O3)O)O)O[C@]4([C@@H]([C@@H]([C@H]([C@H](C)O4)O)O)O)O)O)O2)O)O)O)=C(C5=CC=C(O)C=C5)OC6=CC(O)=CC(O)=C16</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>772.2062082999998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5224611854009444</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2501333951950073</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7498666048049927</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LL-2</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>C[C@@H]1O[C@@H](OC[C@H]2O[C@@H](OC3=C(OC4=C(C(O)=CC(O[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)=C4)C3=O)C3=CC=C(O)C=C3)[C@H](O)[C@@H](O)[C@H]2OC(=O)\C=C\C2=CC=C(O)C=C2)[C@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>886.2531584920001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5655875731719454</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0561710000038147</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9438289999961853</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>LL-3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCC(C1=CC=C(S(=O)(O)=O)C=C1)CCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>300.1031447399999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2121406951257698</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1236437559127808</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8763562440872192</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>LL-4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>O=C1C(C2=CC=C(O)C=C2)=COC3=C1C(O)=CC(O)=C3</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>270.05282342</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6607172828236103</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.2171575427055359</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.7828424572944641</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ECFP6_1024</t>
+          <t>XGB_ECFP6_1024</t>
         </is>
       </c>
     </row>
@@ -6018,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6098,7 +5282,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6132,7 +5316,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6166,7 +5350,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6200,7 +5384,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6234,7 +5418,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6268,7 +5452,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6302,7 +5486,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6336,7 +5520,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6370,7 +5554,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6404,7 +5588,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6438,7 +5622,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6472,7 +5656,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6506,7 +5690,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6540,7 +5724,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6574,7 +5758,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6608,7 +5792,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6642,7 +5826,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6676,7 +5860,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6710,7 +5894,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6744,7 +5928,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6778,7 +5962,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6812,7 +5996,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6030,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6064,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6098,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6948,7 +6132,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6166,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7016,7 +6200,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7050,7 +6234,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7084,7 +6268,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7118,7 +6302,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7152,7 +6336,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7186,7 +6370,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7220,7 +6404,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7254,7 +6438,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7288,7 +6472,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7322,7 +6506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7356,7 +6540,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7390,7 +6574,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7424,7 +6608,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7458,7 +6642,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7492,7 +6676,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7526,7 +6710,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7560,7 +6744,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7594,279 +6778,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LB-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCC(OCC(O)CO)=O</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>262.141638424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2188700564971751</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.05495935678482056</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9450406432151794</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LB-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OC1=C(C2=CC=C(O)C(O)=C2)OC3=C(C(O)=CC(O)=C3)C1=O</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>302.04265266</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.7724604747860562</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8036600947380066</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.1963399201631546</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LB-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCCCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>244.167459248</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2643478260869566</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.06208264827728271</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9379173517227173</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LB-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CC12CC[C@H]3C([C@@H]1CCC24CCC(O4)=O)C=CC5=CC(CCC35C)=O</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>340.203844756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1530608203351276</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.08530533313751221</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.9146946668624878</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>LL-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>O=C1C(O[C@H]2[C@@H]([C@H]([C@H]([C@@H](CO[C@]3([C@@H]([C@@H]([C@H]([C@H](C)O3)O)O)O[C@]4([C@@H]([C@@H]([C@H]([C@H](C)O4)O)O)O)O)O)O2)O)O)O)=C(C5=CC=C(O)C=C5)OC6=CC(O)=CC(O)=C16</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>772.2062082999998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5224611854009444</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.197369396686554</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.802630603313446</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LL-2</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>C[C@@H]1O[C@@H](OC[C@H]2O[C@@H](OC3=C(OC4=C(C(O)=CC(O[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)=C4)C3=O)C3=CC=C(O)C=C3)[C@H](O)[C@@H](O)[C@H]2OC(=O)\C=C\C2=CC=C(O)C=C2)[C@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>886.2531584920001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5655875731719454</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.05817109346389771</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9418289065361023</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>LL-3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCC(C1=CC=C(S(=O)(O)=O)C=C1)CCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>300.1031447399999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2121406951257698</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.07793194055557251</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9220680594444275</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>LL-4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>O=C1C(C2=CC=C(O)C=C2)=COC3=C1C(O)=CC(O)=C3</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>270.05282342</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6607172828236103</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.3851621747016907</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.6148378252983093</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ECFP6_2048</t>
+          <t>XGB_ECFP6_2048</t>
         </is>
       </c>
     </row>
@@ -7881,7 +6793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7961,7 +6873,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -7995,7 +6907,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8029,7 +6941,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8063,7 +6975,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8097,7 +7009,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8131,7 +7043,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8165,7 +7077,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8199,7 +7111,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8233,7 +7145,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8267,7 +7179,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8301,7 +7213,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8335,7 +7247,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8369,7 +7281,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8403,7 +7315,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8437,7 +7349,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8471,7 +7383,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8505,7 +7417,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8539,7 +7451,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8573,7 +7485,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8607,7 +7519,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8641,7 +7553,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8675,7 +7587,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8709,7 +7621,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8743,7 +7655,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8777,7 +7689,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8811,7 +7723,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8845,7 +7757,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8879,7 +7791,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8913,7 +7825,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8947,7 +7859,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -8981,7 +7893,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9015,7 +7927,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9049,7 +7961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9083,7 +7995,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9117,7 +8029,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9151,7 +8063,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9185,7 +8097,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9219,7 +8131,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9253,7 +8165,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9287,7 +8199,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9321,7 +8233,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9355,7 +8267,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9389,7 +8301,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9423,7 +8335,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
@@ -9457,279 +8369,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LB-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCC(OCC(O)CO)=O</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>262.141638424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2188700564971751</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.2502111196517944</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.7497888803482056</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>LB-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OC1=C(C2=CC=C(O)C(O)=C2)OC3=C(C(O)=CC(O)=C3)C1=O</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>302.04265266</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.7724604747860562</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.54567551612854</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.4543245136737823</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>LB-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>O=C(O)CCCCCCCCCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>244.167459248</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2643478260869566</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.2655998468399048</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.7344001531600952</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LB-4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CC12CC[C@H]3C([C@@H]1CCC24CCC(O4)=O)C=CC5=CC(CCC35C)=O</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>340.203844756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1530608203351276</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.3676825165748596</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.6323174834251404</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>LL-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>O=C1C(O[C@H]2[C@@H]([C@H]([C@H]([C@@H](CO[C@]3([C@@H]([C@@H]([C@H]([C@H](C)O3)O)O)O[C@]4([C@@H]([C@@H]([C@H]([C@H](C)O4)O)O)O)O)O)O2)O)O)O)=C(C5=CC=C(O)C=C5)OC6=CC(O)=CC(O)=C16</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>772.2062082999998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5224611854009444</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2632337808609009</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7367662191390991</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>LL-2</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>C[C@@H]1O[C@@H](OC[C@H]2O[C@@H](OC3=C(OC4=C(C(O)=CC(O[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)=C4)C3=O)C3=CC=C(O)C=C3)[C@H](O)[C@@H](O)[C@H]2OC(=O)\C=C\C2=CC=C(O)C=C2)[C@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>886.2531584920001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5655875731719454</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.3160269260406494</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.6839730739593506</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>LL-3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCC(C1=CC=C(S(=O)(O)=O)C=C1)CCCCC(O)=O</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>300.1031447399999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2121406951257698</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.2512035369873047</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.7487964630126953</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Maccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>LL-4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>O=C1C(C2=CC=C(O)C=C2)=COC3=C1C(O)=CC(O)=C3</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>270.05282342</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6607172828236103</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.4899229407310486</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5100770592689514</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Maccs</t>
+          <t>XGB_MACCS</t>
         </is>
       </c>
     </row>
